--- a/R/data/dictionaries/outcome/1_0/1_0_non_repeated.xlsx
+++ b/R/data/dictionaries/outcome/1_0/1_0_non_repeated.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sido/RProjects/analysis-protocols/R/data/dictionaries/outcome/1_0/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14230423-40C0-6C4D-84FC-2195F320556B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9E8306B-C1D4-F543-8968-3079EB8697D5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3690,6 +3690,7 @@
     <font>
       <sz val="8"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -4275,7 +4276,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BG598"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A46" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
@@ -12783,12 +12784,13 @@
   <dimension ref="A1:D47"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="4" width="14.1640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="14.1640625" style="1" customWidth="1"/>
     <col min="5" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
@@ -12813,7 +12815,7 @@
       <c r="B2" s="3">
         <v>0</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="5" t="b">
         <v>0</v>
       </c>
       <c r="D2" s="4" t="s">
@@ -12827,7 +12829,7 @@
       <c r="B3" s="3">
         <v>1</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="5" t="b">
         <v>0</v>
       </c>
       <c r="D3" s="4" t="s">
@@ -12841,7 +12843,7 @@
       <c r="B4" s="3">
         <v>0</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="5" t="b">
         <v>0</v>
       </c>
       <c r="D4" s="4" t="s">
@@ -12855,7 +12857,7 @@
       <c r="B5" s="3">
         <v>1</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="5" t="b">
         <v>0</v>
       </c>
       <c r="D5" s="4" t="s">
@@ -12869,7 +12871,7 @@
       <c r="B6" s="3">
         <v>0</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="5" t="b">
         <v>0</v>
       </c>
       <c r="D6" s="4" t="s">
@@ -12883,7 +12885,7 @@
       <c r="B7" s="3">
         <v>1</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="5" t="b">
         <v>0</v>
       </c>
       <c r="D7" s="4" t="s">
@@ -12897,7 +12899,7 @@
       <c r="B8" s="3">
         <v>0</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="5" t="b">
         <v>0</v>
       </c>
       <c r="D8" s="4" t="s">
@@ -12911,7 +12913,7 @@
       <c r="B9" s="3">
         <v>1</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="5" t="b">
         <v>0</v>
       </c>
       <c r="D9" s="4" t="s">
@@ -12925,7 +12927,7 @@
       <c r="B10" s="3">
         <v>0</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="5" t="b">
         <v>0</v>
       </c>
       <c r="D10" s="4" t="s">
@@ -12939,7 +12941,7 @@
       <c r="B11" s="3">
         <v>1</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="5" t="b">
         <v>0</v>
       </c>
       <c r="D11" s="4" t="s">
@@ -12953,7 +12955,7 @@
       <c r="B12" s="3">
         <v>0</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="5" t="b">
         <v>0</v>
       </c>
       <c r="D12" s="4" t="s">
@@ -12967,7 +12969,7 @@
       <c r="B13" s="3">
         <v>1</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C13" s="5" t="b">
         <v>0</v>
       </c>
       <c r="D13" s="4" t="s">
@@ -12981,7 +12983,7 @@
       <c r="B14" s="3">
         <v>0</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14" s="5" t="b">
         <v>0</v>
       </c>
       <c r="D14" s="4" t="s">
@@ -12995,7 +12997,7 @@
       <c r="B15" s="3">
         <v>1</v>
       </c>
-      <c r="C15" s="5">
+      <c r="C15" s="5" t="b">
         <v>0</v>
       </c>
       <c r="D15" s="4" t="s">
@@ -13009,7 +13011,7 @@
       <c r="B16" s="3">
         <v>0</v>
       </c>
-      <c r="C16" s="5">
+      <c r="C16" s="5" t="b">
         <v>0</v>
       </c>
       <c r="D16" s="4" t="s">
@@ -13023,7 +13025,7 @@
       <c r="B17" s="3">
         <v>1</v>
       </c>
-      <c r="C17" s="5">
+      <c r="C17" s="5" t="b">
         <v>0</v>
       </c>
       <c r="D17" s="4" t="s">
@@ -13037,7 +13039,7 @@
       <c r="B18" s="3">
         <v>0</v>
       </c>
-      <c r="C18" s="5">
+      <c r="C18" s="5" t="b">
         <v>0</v>
       </c>
       <c r="D18" s="4" t="s">
@@ -13051,7 +13053,7 @@
       <c r="B19" s="3">
         <v>1</v>
       </c>
-      <c r="C19" s="5">
+      <c r="C19" s="5" t="b">
         <v>0</v>
       </c>
       <c r="D19" s="4" t="s">
@@ -13065,7 +13067,7 @@
       <c r="B20" s="3">
         <v>0</v>
       </c>
-      <c r="C20" s="5">
+      <c r="C20" s="5" t="b">
         <v>0</v>
       </c>
       <c r="D20" s="4" t="s">
@@ -13079,7 +13081,7 @@
       <c r="B21" s="3">
         <v>1</v>
       </c>
-      <c r="C21" s="5">
+      <c r="C21" s="5" t="b">
         <v>0</v>
       </c>
       <c r="D21" s="4" t="s">
@@ -13093,7 +13095,7 @@
       <c r="B22" s="3">
         <v>0</v>
       </c>
-      <c r="C22" s="5">
+      <c r="C22" s="5" t="b">
         <v>0</v>
       </c>
       <c r="D22" s="4" t="s">
@@ -13107,7 +13109,7 @@
       <c r="B23" s="3">
         <v>1</v>
       </c>
-      <c r="C23" s="5">
+      <c r="C23" s="5" t="b">
         <v>0</v>
       </c>
       <c r="D23" s="4" t="s">
@@ -13121,7 +13123,7 @@
       <c r="B24" s="3">
         <v>0</v>
       </c>
-      <c r="C24" s="5">
+      <c r="C24" s="5" t="b">
         <v>0</v>
       </c>
       <c r="D24" s="4" t="s">
@@ -13135,7 +13137,7 @@
       <c r="B25" s="3">
         <v>1</v>
       </c>
-      <c r="C25" s="5">
+      <c r="C25" s="5" t="b">
         <v>0</v>
       </c>
       <c r="D25" s="4" t="s">
@@ -13149,7 +13151,7 @@
       <c r="B26" s="3">
         <v>0</v>
       </c>
-      <c r="C26" s="5">
+      <c r="C26" s="5" t="b">
         <v>0</v>
       </c>
       <c r="D26" s="4" t="s">
@@ -13163,7 +13165,7 @@
       <c r="B27" s="3">
         <v>1</v>
       </c>
-      <c r="C27" s="5">
+      <c r="C27" s="5" t="b">
         <v>0</v>
       </c>
       <c r="D27" s="4" t="s">
@@ -13177,7 +13179,7 @@
       <c r="B28" s="3">
         <v>0</v>
       </c>
-      <c r="C28" s="5">
+      <c r="C28" s="5" t="b">
         <v>0</v>
       </c>
       <c r="D28" s="4" t="s">
@@ -13191,7 +13193,7 @@
       <c r="B29" s="3">
         <v>1</v>
       </c>
-      <c r="C29" s="5">
+      <c r="C29" s="5" t="b">
         <v>0</v>
       </c>
       <c r="D29" s="4" t="s">
@@ -13205,7 +13207,7 @@
       <c r="B30" s="3">
         <v>0</v>
       </c>
-      <c r="C30" s="5">
+      <c r="C30" s="5" t="b">
         <v>0</v>
       </c>
       <c r="D30" s="4" t="s">
@@ -13219,7 +13221,7 @@
       <c r="B31" s="3">
         <v>1</v>
       </c>
-      <c r="C31" s="5">
+      <c r="C31" s="5" t="b">
         <v>0</v>
       </c>
       <c r="D31" s="4" t="s">
@@ -13233,7 +13235,7 @@
       <c r="B32" s="3">
         <v>0</v>
       </c>
-      <c r="C32" s="5">
+      <c r="C32" s="5" t="b">
         <v>0</v>
       </c>
       <c r="D32" s="4" t="s">
@@ -13247,7 +13249,7 @@
       <c r="B33" s="3">
         <v>1</v>
       </c>
-      <c r="C33" s="5">
+      <c r="C33" s="5" t="b">
         <v>0</v>
       </c>
       <c r="D33" s="4" t="s">
@@ -13261,7 +13263,7 @@
       <c r="B34" s="3">
         <v>0</v>
       </c>
-      <c r="C34" s="5">
+      <c r="C34" s="5" t="b">
         <v>0</v>
       </c>
       <c r="D34" s="4" t="s">
@@ -13275,7 +13277,7 @@
       <c r="B35" s="3">
         <v>1</v>
       </c>
-      <c r="C35" s="5">
+      <c r="C35" s="5" t="b">
         <v>0</v>
       </c>
       <c r="D35" s="4" t="s">
@@ -13289,7 +13291,7 @@
       <c r="B36" s="3">
         <v>0</v>
       </c>
-      <c r="C36" s="5">
+      <c r="C36" s="5" t="b">
         <v>0</v>
       </c>
       <c r="D36" s="4" t="s">
@@ -13303,7 +13305,7 @@
       <c r="B37" s="3">
         <v>1</v>
       </c>
-      <c r="C37" s="5">
+      <c r="C37" s="5" t="b">
         <v>0</v>
       </c>
       <c r="D37" s="4" t="s">
@@ -13317,7 +13319,7 @@
       <c r="B38" s="3">
         <v>0</v>
       </c>
-      <c r="C38" s="5">
+      <c r="C38" s="5" t="b">
         <v>0</v>
       </c>
       <c r="D38" s="4" t="s">
@@ -13331,7 +13333,7 @@
       <c r="B39" s="3">
         <v>1</v>
       </c>
-      <c r="C39" s="5">
+      <c r="C39" s="5" t="b">
         <v>0</v>
       </c>
       <c r="D39" s="4" t="s">
@@ -13345,7 +13347,7 @@
       <c r="B40" s="3">
         <v>0</v>
       </c>
-      <c r="C40" s="5">
+      <c r="C40" s="5" t="b">
         <v>0</v>
       </c>
       <c r="D40" s="4" t="s">
@@ -13359,7 +13361,7 @@
       <c r="B41" s="3">
         <v>1</v>
       </c>
-      <c r="C41" s="5">
+      <c r="C41" s="5" t="b">
         <v>0</v>
       </c>
       <c r="D41" s="4" t="s">
@@ -13373,7 +13375,7 @@
       <c r="B42" s="3">
         <v>0</v>
       </c>
-      <c r="C42" s="5">
+      <c r="C42" s="5" t="b">
         <v>0</v>
       </c>
       <c r="D42" s="4" t="s">
@@ -13387,7 +13389,7 @@
       <c r="B43" s="3">
         <v>1</v>
       </c>
-      <c r="C43" s="5">
+      <c r="C43" s="5" t="b">
         <v>0</v>
       </c>
       <c r="D43" s="4" t="s">
@@ -13401,7 +13403,7 @@
       <c r="B44" s="3">
         <v>0</v>
       </c>
-      <c r="C44" s="5">
+      <c r="C44" s="5" t="b">
         <v>0</v>
       </c>
       <c r="D44" s="4" t="s">
@@ -13415,7 +13417,7 @@
       <c r="B45" s="3">
         <v>1</v>
       </c>
-      <c r="C45" s="5">
+      <c r="C45" s="5" t="b">
         <v>0</v>
       </c>
       <c r="D45" s="4" t="s">
@@ -13429,7 +13431,7 @@
       <c r="B46" s="3">
         <v>0</v>
       </c>
-      <c r="C46" s="5">
+      <c r="C46" s="5" t="b">
         <v>0</v>
       </c>
       <c r="D46" s="4" t="s">
@@ -13443,7 +13445,7 @@
       <c r="B47" s="3">
         <v>1</v>
       </c>
-      <c r="C47" s="5">
+      <c r="C47" s="5" t="b">
         <v>0</v>
       </c>
       <c r="D47" s="4" t="s">

--- a/R/data/dictionaries/outcome/1_0/1_0_non_repeated.xlsx
+++ b/R/data/dictionaries/outcome/1_0/1_0_non_repeated.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10112"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="O:\LifeCycle\new_changes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sido/RProjects/analysis-protocols/R/data/dictionaries/outcome/1_0/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1744DD3B-3459-4671-A068-B1C91AAD0F4E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A8DB56D-34F0-DA49-A5B6-F6683AD7BBD2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Variables" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="90">
   <si>
     <t>name</t>
   </si>
@@ -288,6 +288,9 @@
   </si>
   <si>
     <t>yes</t>
+  </si>
+  <si>
+    <t>text</t>
   </si>
 </sst>
 </file>
@@ -337,6 +340,7 @@
     <font>
       <sz val="8"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -898,18 +902,18 @@
   <dimension ref="A1:BG39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.36328125" style="1" customWidth="1"/>
-    <col min="2" max="3" width="15.453125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="74.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.81640625" style="1"/>
+    <col min="1" max="1" width="20.33203125" style="1" customWidth="1"/>
+    <col min="2" max="3" width="15.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="74.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -978,7 +982,7 @@
       <c r="BF1"/>
       <c r="BG1"/>
     </row>
-    <row r="2" spans="1:59" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:59" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
         <v>33</v>
       </c>
@@ -992,21 +996,19 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:59" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:59" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>35</v>
-      </c>
+      <c r="B3" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="C3" s="9"/>
       <c r="D3" s="9" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="12" t="s">
         <v>5</v>
       </c>
@@ -1021,7 +1023,7 @@
       </c>
       <c r="E4"/>
     </row>
-    <row r="5" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
         <v>6</v>
       </c>
@@ -1036,7 +1038,7 @@
       </c>
       <c r="E5"/>
     </row>
-    <row r="6" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="11" t="s">
         <v>7</v>
       </c>
@@ -1051,7 +1053,7 @@
       </c>
       <c r="E6"/>
     </row>
-    <row r="7" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
         <v>8</v>
       </c>
@@ -1066,7 +1068,7 @@
       </c>
       <c r="E7"/>
     </row>
-    <row r="8" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="12" t="s">
         <v>9</v>
       </c>
@@ -1081,7 +1083,7 @@
       </c>
       <c r="E8"/>
     </row>
-    <row r="9" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="12" t="s">
         <v>10</v>
       </c>
@@ -1096,7 +1098,7 @@
       </c>
       <c r="E9"/>
     </row>
-    <row r="10" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="12" t="s">
         <v>11</v>
       </c>
@@ -1111,7 +1113,7 @@
       </c>
       <c r="E10"/>
     </row>
-    <row r="11" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="12" t="s">
         <v>12</v>
       </c>
@@ -1126,7 +1128,7 @@
       </c>
       <c r="E11"/>
     </row>
-    <row r="12" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="12" t="s">
         <v>13</v>
       </c>
@@ -1141,7 +1143,7 @@
       </c>
       <c r="E12"/>
     </row>
-    <row r="13" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="12" t="s">
         <v>14</v>
       </c>
@@ -1156,7 +1158,7 @@
       </c>
       <c r="E13"/>
     </row>
-    <row r="14" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="12" t="s">
         <v>15</v>
       </c>
@@ -1171,7 +1173,7 @@
       </c>
       <c r="E14"/>
     </row>
-    <row r="15" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="12" t="s">
         <v>16</v>
       </c>
@@ -1186,7 +1188,7 @@
       </c>
       <c r="E15"/>
     </row>
-    <row r="16" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="12" t="s">
         <v>17</v>
       </c>
@@ -1201,7 +1203,7 @@
       </c>
       <c r="E16"/>
     </row>
-    <row r="17" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="12" t="s">
         <v>41</v>
       </c>
@@ -1213,7 +1215,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="11" t="s">
         <v>43</v>
       </c>
@@ -1225,7 +1227,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="11" t="s">
         <v>45</v>
       </c>
@@ -1237,7 +1239,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="11" t="s">
         <v>47</v>
       </c>
@@ -1249,7 +1251,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="12" t="s">
         <v>49</v>
       </c>
@@ -1261,7 +1263,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="12" t="s">
         <v>51</v>
       </c>
@@ -1273,7 +1275,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="12" t="s">
         <v>53</v>
       </c>
@@ -1285,7 +1287,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="12" t="s">
         <v>55</v>
       </c>
@@ -1297,7 +1299,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="12" t="s">
         <v>57</v>
       </c>
@@ -1309,7 +1311,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="12" t="s">
         <v>59</v>
       </c>
@@ -1321,7 +1323,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="12" t="s">
         <v>61</v>
       </c>
@@ -1333,7 +1335,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="12" t="s">
         <v>63</v>
       </c>
@@ -1345,7 +1347,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="11" t="s">
         <v>65</v>
       </c>
@@ -1357,7 +1359,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="11" t="s">
         <v>67</v>
       </c>
@@ -1369,7 +1371,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="11" t="s">
         <v>69</v>
       </c>
@@ -1381,7 +1383,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="11" t="s">
         <v>71</v>
       </c>
@@ -1393,7 +1395,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="11" t="s">
         <v>73</v>
       </c>
@@ -1405,7 +1407,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="11" t="s">
         <v>75</v>
       </c>
@@ -1417,7 +1419,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="11" t="s">
         <v>77</v>
       </c>
@@ -1429,7 +1431,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="11" t="s">
         <v>79</v>
       </c>
@@ -1441,7 +1443,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="11" t="s">
         <v>81</v>
       </c>
@@ -1453,7 +1455,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="11" t="s">
         <v>83</v>
       </c>
@@ -1465,7 +1467,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="11" t="s">
         <v>85</v>
       </c>
@@ -1495,13 +1497,13 @@
       <selection activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="4" width="14.1796875" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.81640625" style="1"/>
+    <col min="1" max="4" width="14.1640625" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>3</v>
       </c>
@@ -1515,7 +1517,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>41</v>
       </c>
@@ -1529,7 +1531,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>41</v>
       </c>
@@ -1543,7 +1545,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>43</v>
       </c>
@@ -1557,7 +1559,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>43</v>
       </c>
@@ -1571,7 +1573,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>45</v>
       </c>
@@ -1585,7 +1587,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>45</v>
       </c>
@@ -1599,7 +1601,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>47</v>
       </c>
@@ -1613,7 +1615,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>47</v>
       </c>
@@ -1627,7 +1629,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>49</v>
       </c>
@@ -1641,7 +1643,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>49</v>
       </c>
@@ -1655,7 +1657,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>51</v>
       </c>
@@ -1669,7 +1671,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>51</v>
       </c>
@@ -1683,7 +1685,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>53</v>
       </c>
@@ -1697,7 +1699,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>53</v>
       </c>
@@ -1711,7 +1713,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>55</v>
       </c>
@@ -1725,7 +1727,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>55</v>
       </c>
@@ -1739,7 +1741,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>57</v>
       </c>
@@ -1753,7 +1755,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>57</v>
       </c>
@@ -1767,7 +1769,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>59</v>
       </c>
@@ -1781,7 +1783,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>59</v>
       </c>
@@ -1795,7 +1797,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>61</v>
       </c>
@@ -1809,7 +1811,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>61</v>
       </c>
@@ -1823,7 +1825,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>63</v>
       </c>
@@ -1837,7 +1839,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>63</v>
       </c>
@@ -1851,7 +1853,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
         <v>65</v>
       </c>
@@ -1865,7 +1867,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
         <v>65</v>
       </c>
@@ -1879,7 +1881,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
         <v>67</v>
       </c>
@@ -1893,7 +1895,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
         <v>67</v>
       </c>
@@ -1907,7 +1909,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
         <v>69</v>
       </c>
@@ -1921,7 +1923,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
         <v>69</v>
       </c>
@@ -1935,7 +1937,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
         <v>71</v>
       </c>
@@ -1949,7 +1951,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
         <v>71</v>
       </c>
@@ -1963,7 +1965,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
         <v>73</v>
       </c>
@@ -1977,7 +1979,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
         <v>73</v>
       </c>
@@ -1991,7 +1993,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
         <v>75</v>
       </c>
@@ -2005,7 +2007,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
         <v>75</v>
       </c>
@@ -2019,7 +2021,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
         <v>77</v>
       </c>
@@ -2033,7 +2035,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
         <v>77</v>
       </c>
@@ -2047,7 +2049,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
         <v>79</v>
       </c>
@@ -2061,7 +2063,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
         <v>79</v>
       </c>
@@ -2075,7 +2077,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
         <v>81</v>
       </c>
@@ -2089,7 +2091,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
         <v>81</v>
       </c>
@@ -2103,7 +2105,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
         <v>83</v>
       </c>
@@ -2117,7 +2119,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
         <v>83</v>
       </c>
@@ -2131,7 +2133,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
         <v>85</v>
       </c>
@@ -2145,7 +2147,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
         <v>85</v>
       </c>

--- a/R/data/dictionaries/outcome/1_0/1_0_non_repeated.xlsx
+++ b/R/data/dictionaries/outcome/1_0/1_0_non_repeated.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sido/RProjects/analysis-protocols/R/data/dictionaries/outcome/1_0/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A8DB56D-34F0-DA49-A5B6-F6683AD7BBD2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{477670E4-0E9B-2E4E-BEAC-9CF7A8A3A490}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="92">
   <si>
     <t>name</t>
   </si>
@@ -291,6 +291,12 @@
   </si>
   <si>
     <t>text</t>
+  </si>
+  <si>
+    <t>asthma_current_ISAAC</t>
+  </si>
+  <si>
+    <t>pets_preg</t>
   </si>
 </sst>
 </file>
@@ -901,8 +907,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BG39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A31" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1337,7 +1343,7 @@
     </row>
     <row r="28" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="12" t="s">
-        <v>63</v>
+        <v>90</v>
       </c>
       <c r="B28" s="12" t="s">
         <v>34</v>
@@ -1469,7 +1475,7 @@
     </row>
     <row r="39" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="11" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="B39" s="11" t="s">
         <v>34</v>

--- a/R/data/dictionaries/outcome/1_0/1_0_non_repeated.xlsx
+++ b/R/data/dictionaries/outcome/1_0/1_0_non_repeated.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sido/RProjects/analysis-protocols/R/data/dictionaries/outcome/1_0/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{477670E4-0E9B-2E4E-BEAC-9CF7A8A3A490}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7126A91C-43C3-8C47-BAA6-A6856229D8A4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Variables" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="90">
   <si>
     <t>name</t>
   </si>
@@ -212,9 +212,6 @@
     <t>Current asthma (MeDALL)</t>
   </si>
   <si>
-    <t>asthma_current_CHICOS</t>
-  </si>
-  <si>
     <t>Current asthma (ISAAC)</t>
   </si>
   <si>
@@ -276,9 +273,6 @@
   </si>
   <si>
     <t>Ever diagnosis of COPD in adulthood based on physician diagnosis</t>
-  </si>
-  <si>
-    <t>pets_pregn</t>
   </si>
   <si>
     <t>Furry pet (dogs, cats, rodents) ownership in child's household during pregnancy.</t>
@@ -907,7 +901,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BG39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A31" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A31" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
@@ -1007,7 +1001,7 @@
         <v>37</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C3" s="9"/>
       <c r="D3" s="9" t="s">
@@ -1343,146 +1337,146 @@
     </row>
     <row r="28" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="12" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B28" s="12" t="s">
         <v>34</v>
       </c>
       <c r="C28" s="11"/>
       <c r="D28" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B29" s="11" t="s">
         <v>34</v>
       </c>
       <c r="C29" s="11"/>
       <c r="D29" s="15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B30" s="11" t="s">
         <v>34</v>
       </c>
       <c r="C30" s="11"/>
       <c r="D30" s="15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B31" s="11" t="s">
         <v>34</v>
       </c>
       <c r="C31" s="11"/>
       <c r="D31" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B32" s="11" t="s">
         <v>34</v>
       </c>
       <c r="C32" s="11"/>
       <c r="D32" s="14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B33" s="11" t="s">
         <v>34</v>
       </c>
       <c r="C33" s="11"/>
       <c r="D33" s="14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B34" s="11" t="s">
         <v>34</v>
       </c>
       <c r="C34" s="11"/>
       <c r="D34" s="15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B35" s="11" t="s">
         <v>34</v>
       </c>
       <c r="C35" s="11"/>
       <c r="D35" s="16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B36" s="11" t="s">
         <v>34</v>
       </c>
       <c r="C36" s="11"/>
       <c r="D36" s="16" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B37" s="11" t="s">
         <v>34</v>
       </c>
       <c r="C37" s="11"/>
       <c r="D37" s="16" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B38" s="11" t="s">
         <v>34</v>
       </c>
       <c r="C38" s="11"/>
       <c r="D38" s="16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="11" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B39" s="11" t="s">
         <v>34</v>
       </c>
       <c r="C39" s="11"/>
       <c r="D39" s="16" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -1499,13 +1493,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D47"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B49" sqref="B49"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="4" width="14.1640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="55.5" style="1" customWidth="1"/>
+    <col min="2" max="4" width="14.1640625" style="1" customWidth="1"/>
     <col min="5" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
@@ -1534,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -1548,7 +1543,7 @@
         <v>0</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -1562,7 +1557,7 @@
         <v>0</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -1576,7 +1571,7 @@
         <v>0</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -1590,7 +1585,7 @@
         <v>0</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -1604,7 +1599,7 @@
         <v>0</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -1618,7 +1613,7 @@
         <v>0</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -1632,7 +1627,7 @@
         <v>0</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -1646,7 +1641,7 @@
         <v>0</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -1660,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -1674,7 +1669,7 @@
         <v>0</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -1688,7 +1683,7 @@
         <v>0</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -1702,7 +1697,7 @@
         <v>0</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -1716,7 +1711,7 @@
         <v>0</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -1730,7 +1725,7 @@
         <v>0</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -1744,7 +1739,7 @@
         <v>0</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -1758,7 +1753,7 @@
         <v>0</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -1772,7 +1767,7 @@
         <v>0</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -1786,7 +1781,7 @@
         <v>0</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -1800,7 +1795,7 @@
         <v>0</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -1814,7 +1809,7 @@
         <v>0</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -1828,12 +1823,12 @@
         <v>0</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>63</v>
+        <v>88</v>
       </c>
       <c r="B24" s="3">
         <v>0</v>
@@ -1842,12 +1837,12 @@
         <v>0</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>63</v>
+        <v>88</v>
       </c>
       <c r="B25" s="3">
         <v>1</v>
@@ -1856,12 +1851,12 @@
         <v>0</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B26" s="3">
         <v>0</v>
@@ -1870,12 +1865,12 @@
         <v>0</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B27" s="3">
         <v>1</v>
@@ -1884,12 +1879,12 @@
         <v>0</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B28" s="3">
         <v>0</v>
@@ -1898,12 +1893,12 @@
         <v>0</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B29" s="3">
         <v>1</v>
@@ -1912,12 +1907,12 @@
         <v>0</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B30" s="3">
         <v>0</v>
@@ -1926,12 +1921,12 @@
         <v>0</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B31" s="3">
         <v>1</v>
@@ -1940,12 +1935,12 @@
         <v>0</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B32" s="3">
         <v>0</v>
@@ -1954,12 +1949,12 @@
         <v>0</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B33" s="3">
         <v>1</v>
@@ -1968,12 +1963,12 @@
         <v>0</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B34" s="3">
         <v>0</v>
@@ -1982,12 +1977,12 @@
         <v>0</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B35" s="3">
         <v>1</v>
@@ -1996,12 +1991,12 @@
         <v>0</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B36" s="3">
         <v>0</v>
@@ -2010,12 +2005,12 @@
         <v>0</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B37" s="3">
         <v>1</v>
@@ -2024,12 +2019,12 @@
         <v>0</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B38" s="3">
         <v>0</v>
@@ -2038,12 +2033,12 @@
         <v>0</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B39" s="3">
         <v>1</v>
@@ -2052,12 +2047,12 @@
         <v>0</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B40" s="3">
         <v>0</v>
@@ -2066,12 +2061,12 @@
         <v>0</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B41" s="3">
         <v>1</v>
@@ -2080,12 +2075,12 @@
         <v>0</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B42" s="3">
         <v>0</v>
@@ -2094,12 +2089,12 @@
         <v>0</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B43" s="3">
         <v>1</v>
@@ -2108,12 +2103,12 @@
         <v>0</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B44" s="3">
         <v>0</v>
@@ -2122,12 +2117,12 @@
         <v>0</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B45" s="3">
         <v>1</v>
@@ -2136,12 +2131,12 @@
         <v>0</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B46" s="3">
         <v>0</v>
@@ -2150,12 +2145,12 @@
         <v>0</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B47" s="3">
         <v>1</v>
@@ -2164,7 +2159,7 @@
         <v>0</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
